--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2597484.584692948</v>
+        <v>2599245.114995734</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E2" t="n">
-        <v>158.2964914343831</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>140.7094048023553</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>29.19140370066683</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>159.2537148754047</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>36.68717304700967</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>71.07905018863951</v>
       </c>
       <c r="G5" t="n">
-        <v>157.7105787605822</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>95.92094869536552</v>
       </c>
       <c r="U6" t="n">
-        <v>27.38640525324198</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>84.02149891443007</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4569845176696</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.83028812346051</v>
       </c>
       <c r="H8" t="n">
-        <v>247.0750853483095</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>19.50083382502192</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>47.84012920312268</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719221</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155204</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8191502244401</v>
+        <v>211.1292411393895</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685653</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>252.1665224406543</v>
       </c>
       <c r="X10" t="n">
-        <v>87.8934844155183</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.433962646575</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>22.10695458833334</v>
       </c>
       <c r="V16" t="n">
-        <v>166.1566063360906</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>26.70391688093296</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514225</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>185.0663491738896</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695369</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>139.1584054594695</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678816</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>25.52471385612641</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487949</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487949</v>
+        <v>549.2024635036628</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323101</v>
+        <v>359.7826784871778</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>170.3628934706929</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201478</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>693.4330259200186</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>518.9799966388916</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="W3" t="n">
-        <v>533.499507267843</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="X3" t="n">
-        <v>372.6371690098584</v>
+        <v>722.9192922843285</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.2173839933736</v>
+        <v>722.9192922843285</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330.8281773991229</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>161.891994471216</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>161.891994471216</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>161.891994471216</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>43.17590452428129</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.0634826394164</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>401.7138139340733</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777542</v>
+        <v>587.3641452287302</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143044</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U4" t="n">
-        <v>709.6677474320925</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V4" t="n">
-        <v>520.2479624156076</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="W4" t="n">
-        <v>520.2479624156076</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X4" t="n">
-        <v>520.2479624156076</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y4" t="n">
-        <v>330.8281773991229</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1312.994794866847</v>
+        <v>1191.958782733142</v>
       </c>
       <c r="C5" t="n">
-        <v>944.0322779264357</v>
+        <v>1191.958782733142</v>
       </c>
       <c r="D5" t="n">
-        <v>585.7665793196852</v>
+        <v>833.6930841263918</v>
       </c>
       <c r="E5" t="n">
-        <v>199.978326721441</v>
+        <v>833.6930841263918</v>
       </c>
       <c r="F5" t="n">
-        <v>193.0328259722375</v>
+        <v>761.8960637338266</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.460553127927</v>
+        <v>1191.958782733142</v>
       </c>
       <c r="X5" t="n">
-        <v>1312.994794866847</v>
+        <v>1191.958782733142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1312.994794866847</v>
+        <v>1191.958782733142</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8195640491023</v>
+        <v>516.3541050103923</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3665347679753</v>
+        <v>341.9010757292653</v>
       </c>
       <c r="D6" t="n">
-        <v>608.432125106724</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1946701012685</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1543.309735648992</v>
+        <v>1589.570705960891</v>
       </c>
       <c r="U6" t="n">
-        <v>1515.646700039657</v>
+        <v>1589.570705960891</v>
       </c>
       <c r="V6" t="n">
-        <v>1515.646700039657</v>
+        <v>1354.418597729149</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.646700039657</v>
+        <v>1100.181241000947</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.795199834124</v>
+        <v>892.3297407954142</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.03490106917</v>
+        <v>684.5694420304603</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.72921106255854</v>
+        <v>669.0168993920704</v>
       </c>
       <c r="C7" t="n">
-        <v>33.72921106255854</v>
+        <v>500.0807164641635</v>
       </c>
       <c r="D7" t="n">
-        <v>33.72921106255854</v>
+        <v>349.9640770518278</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255854</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255854</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1208.261464177193</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1208.261464177193</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>1208.261464177193</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>953.5769759713064</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>664.1598059343457</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="X7" t="n">
-        <v>436.1702550363283</v>
+        <v>1071.45794336584</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.3776758927982</v>
+        <v>850.6653642223101</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1067.572396079892</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="C8" t="n">
-        <v>698.60987913948</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="D8" t="n">
-        <v>698.60987913948</v>
+        <v>853.0794898987633</v>
       </c>
       <c r="E8" t="n">
-        <v>312.8216265412357</v>
+        <v>467.291237300519</v>
       </c>
       <c r="F8" t="n">
-        <v>305.8761257920323</v>
+        <v>56.30533251091144</v>
       </c>
       <c r="G8" t="n">
-        <v>293.9263398087388</v>
+        <v>44.355546527618</v>
       </c>
       <c r="H8" t="n">
-        <v>44.3555465276181</v>
+        <v>44.355546527618</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3555465276181</v>
+        <v>44.355546527618</v>
       </c>
       <c r="J8" t="n">
-        <v>156.89270458727</v>
+        <v>156.8927045872692</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158981</v>
+        <v>376.295250515897</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985246</v>
+        <v>685.385271498523</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556939</v>
+        <v>1060.976912556937</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415483</v>
+        <v>1447.25982741548</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975103</v>
+        <v>1798.680568975099</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063108</v>
+        <v>2064.109040631075</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208117</v>
+        <v>2215.262022208113</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380905</v>
+        <v>2198.079514436433</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380905</v>
+        <v>1988.084360545447</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380905</v>
+        <v>1988.084360545447</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.777326380905</v>
+        <v>1988.084360545447</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.777326380905</v>
+        <v>1988.084360545447</v>
       </c>
       <c r="X8" t="n">
-        <v>1844.311568119825</v>
+        <v>1988.084360545447</v>
       </c>
       <c r="Y8" t="n">
-        <v>1454.172236144013</v>
+        <v>1597.945028569635</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>721.8383612800039</v>
+        <v>931.298865693644</v>
       </c>
       <c r="C9" t="n">
-        <v>547.3853319988769</v>
+        <v>756.845836412517</v>
       </c>
       <c r="D9" t="n">
-        <v>398.4509223376257</v>
+        <v>607.9114267512657</v>
       </c>
       <c r="E9" t="n">
-        <v>239.2134673321702</v>
+        <v>448.6739717458101</v>
       </c>
       <c r="F9" t="n">
-        <v>92.67890935905515</v>
+        <v>302.1394137726951</v>
       </c>
       <c r="G9" t="n">
-        <v>44.3555465276181</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="H9" t="n">
-        <v>44.3555465276181</v>
+        <v>70.04102928676147</v>
       </c>
       <c r="I9" t="n">
-        <v>44.3555465276181</v>
+        <v>44.355546527618</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424026</v>
+        <v>92.56405995423991</v>
       </c>
       <c r="K9" t="n">
-        <v>514.9354973067598</v>
+        <v>514.9354973067591</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364354</v>
+        <v>777.1384731364342</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.47384678654</v>
+        <v>1102.473846786538</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627293</v>
+        <v>1450.82852462729</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042444</v>
+        <v>1747.285203042441</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855261</v>
+        <v>2121.568509855257</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="T9" t="n">
-        <v>2023.155113972362</v>
+        <v>2217.7773263809</v>
       </c>
       <c r="U9" t="n">
-        <v>1795.054962230503</v>
+        <v>2004.515466644143</v>
       </c>
       <c r="V9" t="n">
-        <v>1559.90285399876</v>
+        <v>1769.3633584124</v>
       </c>
       <c r="W9" t="n">
-        <v>1305.665497270559</v>
+        <v>1515.126001684199</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.813997065026</v>
+        <v>1307.274501478666</v>
       </c>
       <c r="Y9" t="n">
-        <v>890.053698300072</v>
+        <v>1099.514202713712</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.3473259688666</v>
+        <v>620.0039282532107</v>
       </c>
       <c r="C10" t="n">
-        <v>362.3473259688666</v>
+        <v>451.0677453253038</v>
       </c>
       <c r="D10" t="n">
-        <v>362.3473259688666</v>
+        <v>300.951105912968</v>
       </c>
       <c r="E10" t="n">
-        <v>362.3473259688666</v>
+        <v>300.951105912968</v>
       </c>
       <c r="F10" t="n">
-        <v>362.3473259688666</v>
+        <v>154.0611584150577</v>
       </c>
       <c r="G10" t="n">
-        <v>194.2328228328128</v>
+        <v>154.0611584150577</v>
       </c>
       <c r="H10" t="n">
-        <v>44.3555465276181</v>
+        <v>154.0611584150577</v>
       </c>
       <c r="I10" t="n">
-        <v>44.3555465276181</v>
+        <v>44.355546527618</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691986</v>
+        <v>60.95254262691959</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274022</v>
+        <v>218.0633423274017</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918424</v>
+        <v>474.6375091918416</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921692</v>
+        <v>755.5481168921681</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629316</v>
+        <v>1035.213914629314</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546127</v>
+        <v>1277.514248546126</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659236</v>
+        <v>1461.323360659234</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.022860744657</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="V10" t="n">
-        <v>961.3383725387697</v>
+        <v>1505.148182155962</v>
       </c>
       <c r="W10" t="n">
-        <v>671.9212025018091</v>
+        <v>1250.434523124998</v>
       </c>
       <c r="X10" t="n">
-        <v>583.1399051123967</v>
+        <v>1022.444972226981</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.3473259688666</v>
+        <v>801.6523930834504</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168619</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5047,7 +5047,7 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5062,13 +5062,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>150.8995423128893</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841098</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998684</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>847.6442739835389</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>847.6442739835389</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345712032</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2022.176527098174</v>
       </c>
       <c r="V16" t="n">
-        <v>1703.405732304761</v>
+        <v>1767.492038892287</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.9885622678</v>
+        <v>1478.074868855326</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.999011369783</v>
+        <v>1250.085317957309</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.2064322262529</v>
+        <v>1029.292738813779</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128888</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5831,10 +5831,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939068</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>671.2000270096656</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>267.680263960966</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>120.7903164630557</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1790.525374274257</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1790.525374274257</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,22 +6463,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,49 +6837,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2437.724555511392</v>
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,25 +7186,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>119.5992022965844</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>42.56275186471098</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777609</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>157.2563157025144</v>
+        <v>157.2563157025137</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688334</v>
+        <v>30.32522655688351</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>264.0775198009108</v>
       </c>
       <c r="V16" t="n">
-        <v>85.98103698773738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.8202214113359</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>101.1181252153545</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>112.9792378643585</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>138.4949402405001</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>139.9994244361424</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357771</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
@@ -26325,37 +26325,37 @@
         <v>645717.2797520052</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>259123.8056778326</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296883</v>
+        <v>138712.7919296868</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745772</v>
+        <v>589678.7921745786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153559</v>
+        <v>60247.15959153572</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484241</v>
+        <v>33617.87336484198</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016728</v>
+        <v>154073.8510167284</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.189062972413953e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296195</v>
+        <v>170385.5244296199</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685496</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
@@ -26453,10 +26453,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685503</v>
+        <v>14216.75207685516</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969289</v>
+        <v>86168.0402996928</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269678.4637042393</v>
+        <v>-269678.4637042391</v>
       </c>
       <c r="C6" t="n">
-        <v>112844.3125188439</v>
+        <v>112844.3125188442</v>
       </c>
       <c r="D6" t="n">
-        <v>261567.0592324261</v>
+        <v>261567.0592324272</v>
       </c>
       <c r="E6" t="n">
-        <v>-59648.17357769112</v>
+        <v>-59335.5322487712</v>
       </c>
       <c r="F6" t="n">
-        <v>530030.6185968862</v>
+        <v>530343.2599258074</v>
       </c>
       <c r="G6" t="n">
-        <v>530030.6185968857</v>
+        <v>530343.2599258074</v>
       </c>
       <c r="H6" t="n">
-        <v>530030.6185968861</v>
+        <v>530343.2599258076</v>
       </c>
       <c r="I6" t="n">
-        <v>530030.6185968861</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="J6" t="n">
-        <v>480965.6738683413</v>
+        <v>481278.3151972625</v>
       </c>
       <c r="K6" t="n">
-        <v>469783.4590053504</v>
+        <v>470096.1003342712</v>
       </c>
       <c r="L6" t="n">
-        <v>496412.7452320436</v>
+        <v>496725.3865609649</v>
       </c>
       <c r="M6" t="n">
-        <v>375956.767580158</v>
+        <v>376269.4089090786</v>
       </c>
       <c r="N6" t="n">
-        <v>530030.6185968858</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="O6" t="n">
-        <v>530030.6185968856</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="P6" t="n">
-        <v>530030.6185968862</v>
+        <v>530343.2599258071</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26721,10 +26721,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790435</v>
+        <v>863.7717861790422</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952262</v>
+        <v>554.444331595225</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,25 +26810,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>201.5110155847052</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814335</v>
+        <v>113.7908296814322</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626305</v>
+        <v>504.2037141626317</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132444</v>
+        <v>132.8291933132432</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044224</v>
+        <v>618.2639565044236</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156616</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132447</v>
+        <v>132.8291933132432</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044221</v>
+        <v>618.2639565044236</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156617</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132444</v>
+        <v>132.8291933132432</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044224</v>
+        <v>618.2639565044236</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6338786378787</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
+        <v>266.1666409393561</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>137.3417799492005</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>46.51927032807276</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,19 +27593,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>249.5779084464406</v>
+        <v>98.73949432713019</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750805</v>
+        <v>64.61205615750791</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>121.3504611604963</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>31.0590661857747</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>335.796995553072</v>
       </c>
       <c r="G5" t="n">
-        <v>254.577159934462</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>94.24014755885166</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>97.74158661246264</v>
       </c>
       <c r="U6" t="n">
-        <v>198.4488474470964</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27824,7 +27824,7 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>116.4260254568714</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
@@ -27833,13 +27833,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>6.252670871367513</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>56.83749443497072</v>
+        <v>303.9125797832803</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787293</v>
+        <v>76.60428439787313</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>110.3907952484398</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0678569565025</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>87.64546374075945</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719218</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155194</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,10 +27985,10 @@
         <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>14.68990908505057</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305867</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>196.8715076418047</v>
       </c>
       <c r="T10" t="n">
         <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>34.35647589593668</v>
       </c>
       <c r="X10" t="n">
-        <v>137.8161709735189</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28614,22 +28614,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-3.193044287470043e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-5.468268590953371e-13</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29562,19 +29562,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.605826582817826e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.754872389017678e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>7.576031939724371e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674544</v>
+        <v>3.472449391674539</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248693</v>
+        <v>35.56222233248688</v>
       </c>
       <c r="I8" t="n">
-        <v>133.871605172533</v>
+        <v>133.8716051725328</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566376</v>
+        <v>294.7198015566372</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062212</v>
+        <v>441.7085843062205</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766811</v>
+        <v>547.9785573766803</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458732</v>
+        <v>609.7317292458723</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799686</v>
+        <v>619.5978260799677</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415048</v>
+        <v>585.0686574415039</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845394</v>
+        <v>499.3425630845387</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451947</v>
+        <v>374.9854692451941</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997763</v>
+        <v>218.1262490997759</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278375</v>
+        <v>79.12844051278364</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205532</v>
+        <v>15.2006472120553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339635</v>
+        <v>0.2777959513339631</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328509</v>
+        <v>1.857924219328506</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930428</v>
+        <v>17.94363653930426</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986313</v>
+        <v>63.96800491986304</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743658</v>
+        <v>175.5330947743656</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693759</v>
+        <v>300.0140174693755</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169203</v>
+        <v>403.4058705169197</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675786</v>
+        <v>470.7556234675779</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436896</v>
+        <v>483.2151240436889</v>
       </c>
       <c r="O9" t="n">
-        <v>442.047434762779</v>
+        <v>442.0474347627783</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873887</v>
+        <v>354.7820379873882</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839197</v>
+        <v>237.1623968391967</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070806</v>
+        <v>115.3542774070804</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498346</v>
+        <v>34.51012749498341</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363592</v>
+        <v>7.48873841036358</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347704</v>
+        <v>0.1222318565347702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765488</v>
+        <v>1.557621253765486</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8486689652968</v>
+        <v>13.84866896529678</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869306</v>
+        <v>46.84191915869299</v>
       </c>
       <c r="J10" t="n">
-        <v>110.12382264122</v>
+        <v>110.1238226412198</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011176</v>
+        <v>180.9672693011173</v>
       </c>
       <c r="L10" t="n">
-        <v>231.57579985528</v>
+        <v>231.5757998552796</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243482</v>
+        <v>244.1642116243479</v>
       </c>
       <c r="N10" t="n">
-        <v>238.358532405768</v>
+        <v>238.3585324057676</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231438</v>
+        <v>220.1626841231435</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463277</v>
+        <v>188.3872105463274</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130356</v>
+        <v>130.4295397130354</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658275</v>
+        <v>70.03631564658265</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516763</v>
+        <v>27.14509039516759</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543447</v>
+        <v>6.655290811543438</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629945</v>
+        <v>0.08496115929629933</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>182.7118610708589</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>182.7118610708584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321073</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.45844197068251</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299513</v>
+        <v>113.6738970299509</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612406</v>
+        <v>221.6187332612399</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066939</v>
+        <v>312.2121424066931</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186005</v>
+        <v>379.3854960185996</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833777</v>
+        <v>390.1847624833768</v>
       </c>
       <c r="O8" t="n">
-        <v>354.970446019818</v>
+        <v>354.9704460198171</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292699</v>
+        <v>268.1095673292692</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707452</v>
+        <v>152.6797793707446</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644136</v>
+        <v>2.540711285643823</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769916</v>
+        <v>48.6954681076989</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075955</v>
+        <v>426.6378155075951</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370461</v>
+        <v>264.8514907370455</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455603</v>
+        <v>328.6215895455596</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603563</v>
+        <v>351.8734119603556</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183346</v>
+        <v>299.4511903183339</v>
       </c>
       <c r="P9" t="n">
-        <v>378.0639462755728</v>
+        <v>378.0639462755717</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1806227531755</v>
+        <v>97.18062275317516</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454723</v>
+        <v>16.76464252454707</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752347</v>
+        <v>158.6977774752345</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155961</v>
+        <v>259.1658251155958</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861888</v>
+        <v>283.7480885861885</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849966</v>
+        <v>282.4907047849962</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371835</v>
+        <v>244.7478120371832</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112212</v>
+        <v>185.6657698112209</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134117</v>
+        <v>44.267496461341</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>55.87423440419223</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>55.87423440419167</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88662398579288</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876629</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066325</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
